--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91668.27794432815</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35039594.86796366</v>
+        <v>34918146.52574431</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105524.49589032</v>
+        <v>19463052.19146675</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>211373.669767007</v>
       </c>
     </row>
     <row r="11">
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2409,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2649,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
     </row>
     <row r="32">
@@ -3029,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3120,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2.873653090726852</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3357,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2.873653090726853</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2.873653090726853</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3588,16 +3590,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.873653090726853</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3639,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.873653090726853</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
     </row>
     <row r="41">
@@ -3740,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.873653090726853</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3819,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2.873653090726853</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2.873653090726853</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>185.104588796355</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>88.54113086355349</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.4561956203818615</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.686119053419535</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>4.601580589971187</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.832531600835448</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>7.268993370305773</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>8.74347400848858</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>10.0923357292512</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>11.17491617791312</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>11.89859253828467</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.5970352923692026</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.149238072150545</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.888057477265406</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>2.633099146417964</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>3.360425389928086</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>6.590348822965759</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>4.180237967355344</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>7.931409106423309</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>9.71668519667894</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.4561956203818616</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.9918165824064465</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.907278118958099</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3.138229129822361</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>6.049171537475493</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>8.014015446969966</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>9.096595895631884</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>6.720850779856169</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>7.427480221213296</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>8.172521890365854</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>8.899848133875976</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>9.571651640921385</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>10.14649559884087</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>2.508138455589629</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>4.180237967355346</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>6.040770853278585</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>7.931409106423309</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>9.71668519667894</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4.485730637469688</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>5.40119217402134</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>6.632143184885602</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>8.068604954355926</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>9.543085592538734</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>10.89194731330136</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>11.97452776196327</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>12.69820412233482</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>6.720850779856169</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>9.933188151431848</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>10.67822982058441</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>11.40555606409453</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>12.07735957113994</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.2610039137808193</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.160310701713747</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>2.508138455589628</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>4.180237967355343</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>6.040770853278583</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>9.71668519667894</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>12.38460615143388</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.072177809113709</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.607798771138294</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2.523260307689946</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>3.754211318554209</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>5.190673088024535</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>6.665153726207342</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>8.014015446969966</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>9.096595895631884</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>4.043130126599839</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>4.749759567956966</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>7.846298547528415</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>8.573624791038538</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>9.245428298083949</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>9.754691727162042</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.852011837538959</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3.556507875659891</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.556507875659891</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.16031070171375</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>2.508138455589631</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>4.180237967355347</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>6.040770853278586</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>7.931409106423311</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>9.716685196678942</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>12.38460615143388</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.754691727162042</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>9.754691727162042</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>9.754691727162042</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>9.754691727162042</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>9.754691727162042</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>9.754691727162042</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>9.754691727162042</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3.556507875659891</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.4561956203818617</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.607798771138298</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2.52326030768995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>3.754211318554213</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>5.190673088024538</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>6.665153726207346</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>8.014015446969969</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>9.096595895631888</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>9.820272256003436</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>9.754691727162042</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>9.754691727162042</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>9.754691727162042</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>6.459187765282973</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.490927346818497</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>6.720850779856172</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>7.4274802212133</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>8.172521890365859</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>8.899848133875981</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>9.571651640921392</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>10.14649559884087</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>6.852011837538959</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>6.852011837538959</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>3.556507875659891</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.85201183753896</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.85201183753896</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.85201183753896</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>3.556507875659891</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.2610039137808224</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.16031070171375</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>2.508138455589631</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>4.180237967355347</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>6.040770853278587</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>7.931409106423312</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>9.716685196678945</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>11.24037703589001</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>12.38460615143388</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>6.85201183753896</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>3.556507875659891</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3.556507875659891</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.490927346818498</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>4.026548308843083</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>4.942009845394735</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>6.172960856258999</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>7.609422625729323</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>9.083903263912132</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>10.43276498467476</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>11.51534543333667</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>12.23902179370822</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3.163683803403906</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>3.163683803403906</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>3.163683803403906</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3.163683803403906</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.5970352923692029</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.149238072150546</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>4.379161505188221</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>5.124203174340781</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>5.851529417850903</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>6.590348822965763</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>9.820272256003438</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>6.459187765282975</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>3.163683803403906</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.459187765282975</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.163683803403906</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.2610039137808219</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.508138455589631</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>4.180237967355347</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>6.040770853278587</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>7.931409106423311</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>9.716685196678943</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>11.24037703589001</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>12.38460615143388</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>6.85201183753896</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>3.556507875659891</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.490927346818498</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>4.026548308843083</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>4.942009845394735</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>6.172960856258999</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>7.609422625729323</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>9.083903263912132</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>10.43276498467476</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>11.51534543333667</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>12.69820412233483</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>9.754691727162044</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>6.85201183753896</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>3.556507875659891</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>3.556507875659891</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.2610039137808223</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.5970352923692029</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.149238072150546</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>2.217391560793843</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2.962433229946402</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>6.192356662984077</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>9.422280096021751</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>12.65220352905943</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>620.4838481711383</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>620.4838481711383</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>620.4838481711383</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>195.5292216073329</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1042.893577318941</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>531.967223835246</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>425.5107626718883</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>330.4204738184416</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>236.3000591453953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>152.9162207615569</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>779.7569041357884</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>653.2711249150092</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>918.6769976330718</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>746.1152861162967</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1006.944496686799</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1097.308365280052</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1180.774023741878</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1583.307041704538</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1583.307041704538</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1583.307041704538</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1337.915287037951</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1110.495616352059</v>
       </c>
     </row>
   </sheetData>
@@ -9714,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.721517647487969</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.8076884687375312</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9799,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.03251511490680192</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -9808,13 +9810,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2.583959521204308</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.681898459715344</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>2.860536639450492</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9966,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>0.6222042310422733</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>2.907001885183223</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.923123287322518</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2.704768336622556</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10051,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2.531018111331871</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.065385582259226</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4638205339662702</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10267,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.923123287322518</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2.704768336622556</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2.531018111331871</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.6222042310422701</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>2.907001885183224</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.923123287322518</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10513,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>2.37524980850393</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10525,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2.860536639450491</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.6222042310422736</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>2.907001885183225</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.923123287322519</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2.704768336622558</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10762,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>2.531018111331869</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.065385582259228</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.4638205339662697</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10984,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>2.548781809778331</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10993,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.06769282633277918</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.681898459715345</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2.860536639450493</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.065385582259228</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.4638205339662708</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11221,19 +11223,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.3651758053395652</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2.527875949017731</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2.583959521204309</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.681898459715346</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>16.80470271645413</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11470,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>199.3430630505374</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -24209,7 +24211,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>428.2881380550396</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -24218,13 +24220,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>253.3666745061949</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>397.5443511208167</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>412.0773856957555</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24297,10 +24299,10 @@
         <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>84.53123883647795</v>
+        <v>81.65185921816891</v>
       </c>
       <c r="H24" t="n">
-        <v>41.31829566194965</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24333,16 +24335,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>62.82088317610075</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T24" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U24" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V24" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W24" t="n">
         <v>183.4695267241379</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>186.637883609537</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>167.573545479347</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -24376,13 +24378,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>240.5264858090711</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -24427,7 +24429,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>239.6752881976614</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -24455,13 +24457,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>79.30891504736402</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>214.5571542240768</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>253.3666745061949</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>356.1171274747849</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24534,10 +24536,10 @@
         <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H27" t="n">
-        <v>41.31829566194965</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24570,16 +24572,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>62.82088317610075</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T27" t="n">
-        <v>128.8768572327044</v>
+        <v>125.9801222172054</v>
       </c>
       <c r="U27" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V27" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W27" t="n">
         <v>183.4695267241379</v>
@@ -24604,7 +24606,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>160.9566639482323</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -24613,13 +24615,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>281.212299957547</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>266.0435914473111</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>239.6752881976614</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -24680,25 +24682,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>430.8873949976841</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>428.2881380550396</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>420.326206372624</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>355.7282316432514</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>120.0908620689655</v>
+        <v>117.2172089782387</v>
       </c>
       <c r="C30" t="n">
         <v>105.3918965517241</v>
@@ -24771,10 +24773,10 @@
         <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H30" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24807,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>62.82088317610075</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T30" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U30" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V30" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W30" t="n">
-        <v>183.4695267241379</v>
+        <v>180.2069778018777</v>
       </c>
       <c r="X30" t="n">
         <v>153.3187614035088</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>186.637883609537</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>167.573545479347</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -24850,13 +24852,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>154.3027390048774</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -24904,7 +24906,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>222.2718208883059</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24919,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>430.4984991661506</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>428.2881380550396</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>426.5633443025609</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>420.326206372624</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -25008,10 +25010,10 @@
         <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>84.53123883647795</v>
+        <v>81.26296338663548</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194965</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25044,16 +25046,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T33" t="n">
-        <v>128.8768572327044</v>
+        <v>125.9801222172054</v>
       </c>
       <c r="U33" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V33" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W33" t="n">
         <v>183.4695267241379</v>
@@ -25087,13 +25089,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>135.1979190266826</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>84.36642380163354</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>240.1375899775377</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>281.212299957547</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -25154,25 +25156,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>430.8873949976841</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>428.2881380550396</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>420.326206372624</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>79.30891504736402</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25245,10 +25247,10 @@
         <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>84.53123883647795</v>
+        <v>81.65185921816891</v>
       </c>
       <c r="H36" t="n">
-        <v>41.31829566194965</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>62.82088317610075</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T36" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U36" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V36" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W36" t="n">
         <v>183.4695267241379</v>
@@ -25324,13 +25326,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>240.5264858090711</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>280.8234041260135</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>239.6752881976614</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>221.8829250567725</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>418.7740258577984</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>430.8873949976841</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25400,16 +25402,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>420.326206372624</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>394.1106012944824</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25476,16 +25478,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E39" t="n">
-        <v>93.17921052631581</v>
+        <v>90.30555743558897</v>
       </c>
       <c r="F39" t="n">
-        <v>82.55</v>
+        <v>79.28745107773972</v>
       </c>
       <c r="G39" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H39" t="n">
-        <v>41.31829566194965</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,16 +25520,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T39" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U39" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V39" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W39" t="n">
         <v>183.4695267241379</v>
@@ -25558,16 +25560,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>172.0663304071345</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>266.0435914473111</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>239.6752881976614</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>221.8829250567725</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25630,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>430.4984991661506</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>428.2881380550396</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>426.1744484710275</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>420.7151022041575</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25707,22 +25709,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C42" t="n">
-        <v>105.3918965517241</v>
+        <v>102.5182434609973</v>
       </c>
       <c r="D42" t="n">
-        <v>94.13938596491228</v>
+        <v>90.876837042652</v>
       </c>
       <c r="E42" t="n">
-        <v>93.17921052631581</v>
+        <v>89.91666160405553</v>
       </c>
       <c r="F42" t="n">
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H42" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,19 +25757,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T42" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U42" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V42" t="n">
         <v>197.1263427586206</v>
       </c>
       <c r="W42" t="n">
-        <v>183.4695267241379</v>
+        <v>180.2069778018777</v>
       </c>
       <c r="X42" t="n">
         <v>153.3187614035088</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>187.0267794410704</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>167.573545479347</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>160.9566639482323</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>171.6774345756011</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -25865,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25874,16 +25876,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>238.4841664985293</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>187.0750049854988</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -26086,10 +26088,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2723.937712648962</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2723.937712648977</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2723.937712648977</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2723.937712648976</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2723.937712648978</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2723.937712648977</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2723.937712648978</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>343655.7648886943</v>
       </c>
     </row>
   </sheetData>
@@ -26332,28 +26334,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>773.8268907947322</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>773.8268907947324</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>773.8268907947324</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>773.8268907947324</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>773.8268907947327</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>773.8268907947328</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>773.826890794733</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>97378.78047220713</v>
       </c>
     </row>
     <row r="3">
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2871.648774425131</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>316458.5395085998</v>
       </c>
     </row>
     <row r="4">
@@ -26436,28 +26438,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1010804579415</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>115.1010804579415</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>115.1010804579415</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>115.1010804579414</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>115.1010804579415</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>115.1010804579415</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>115.1010804579415</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>15365.01109927397</v>
       </c>
     </row>
     <row r="5">
@@ -26488,28 +26490,28 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>256.4018338459633</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>256.4018338459633</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>256.4018338459633</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>32636.50261996421</v>
       </c>
     </row>
     <row r="6">
@@ -26540,28 +26542,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-2469.324797934303</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>402.3239764908279</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>402.3239764908278</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>402.3239764908278</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>402.3239764908279</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>402.3239764908279</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>402.3239764908282</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-267081.2727556308</v>
       </c>
     </row>
   </sheetData>
@@ -26756,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.662332998740294</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.662332998740294</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>330.7713854632871</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
     </row>
   </sheetData>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>328.1090524645468</v>
       </c>
     </row>
     <row r="4">
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>414.9230829340646</v>
       </c>
     </row>
   </sheetData>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313975</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.9083906948817443</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.6723126642497281</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.04685170935471608</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.0008562276980873292</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0057265275821961</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.05530620059647287</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.5410312747723079</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.7309862225975232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.3555470370770527</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.04268461758636077</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.7137671124819465</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.7346729732425469</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.6785894010559683</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.5806504625449316</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.08366708784565799</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.02051305753127765</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1096105239129609</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313977</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.9083906948817447</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.6723126642497285</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.0008562276980873297</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.05530620059647289</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.5410312747723082</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.924708622779447</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.7309862225975237</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.3555470370770529</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.02308192477209744</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.0003767452356707964</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.004800928358384135</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.3394256349377583</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.5577805856377203</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.7137671124819469</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.752567342578342</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.7346729732425472</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.6785894010559687</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.5806504625449319</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.4020122828097843</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.2158671969142539</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.08366708784565803</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.1096105239129609</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313977</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.9083906948817447</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.6723126642497285</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.0008562276980873297</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.05530620059647289</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.5410312747723082</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.924708622779447</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.7309862225975237</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.3555470370770529</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.02308192477209744</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.0003767452356707964</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.004800928358384135</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.3394256349377583</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.5577805856377203</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.7137671124819469</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.752567342578342</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.7346729732425472</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.6785894010559687</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.5806504625449319</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.4020122828097843</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.2158671969142539</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.08366708784565803</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1096105239129609</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313978</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.9083906948817448</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.361442175632204</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.688989405823956</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.803309182076397</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.6723126642497286</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>0.2438911083770632</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.04685170935471611</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.0008562276980873298</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.005726527582196103</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.05530620059647291</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.1971633400010501</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.5410312747723083</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.9247086227794472</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.489374382002837</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1.093515604709009</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.7309862225975238</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.3555470370770529</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.02308192477209745</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.0003767452356707965</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.004800928358384136</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.0426846175863608</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.3394256349377583</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.5577805856377204</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.713767112481947</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.7525673425783422</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.7346729732425474</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.6785894010559688</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.5806504625449319</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.4020122828097843</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.2158671969142539</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.08366708784565804</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.02051305753127767</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.0002618688195482259</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.1096105239129609</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313978</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.9083906948817448</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.361442175632204</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.688989405823956</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.803309182076397</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>0.6723126642497286</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>0.2438911083770632</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.04685170935471611</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.0008562276980873298</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.005726527582196103</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.05530620059647291</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.1971633400010501</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.5410312747723083</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.9247086227794472</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.489374382002837</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1.093515604709009</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.7309862225975238</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>0.3555470370770529</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.02308192477209745</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.0003767452356707965</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.004800928358384136</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.0426846175863608</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.3394256349377583</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.5577805856377204</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.713767112481947</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.7525673425783422</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.7346729732425474</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.6785894010559688</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.5806504625449319</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.4020122828097843</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.2158671969142539</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.08366708784565804</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.02051305753127767</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.0002618688195482259</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.688989405823954</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.9247086227794461</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.7309862225975223</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.163235505814583</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.7462822273887484</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.7346729732425468</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.688989405823954</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.909735609237096</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.672312664249727</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.984690817671185</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.7137671124819462</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.6785894010559677</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2.933030394141655</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.361442175632202</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.688989405823956</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.004851808738578</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.3555470370770522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>3.244785223813818</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.6785894010559677</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.9083906948817448</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.803309182076397</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1.53908266586976</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.6723126642497252</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.8193675710433201</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.5410312747723083</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.924708622779447</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.5577805856377203</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.7137671124819471</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>3.127817151082272</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.6785894010559712</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.9083906948817447</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.688989405823956</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.909735609237096</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1.53908266586976</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.163235505814582</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.924708622779447</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.7137671124819471</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.7525673425783426</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.6785894010559694</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>2.933030394141653</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.9083906948817448</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.361442175632204</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.909735609237097</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.803309182076397</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1.53908266586976</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.672312664249727</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.5410312747723083</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.9247086227794474</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.489374382002837</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.362486586628913</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.7309862225975241</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.8193675710433226</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.3394256349377583</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.5577805856377203</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.7525673425783426</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.7462822273887477</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.9083906948817448</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.361442175632204</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.688989405823956</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.803309182076397</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1.53908266586976</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.5410312747723083</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.9247086227794474</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.45097148431346</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.489374382002837</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.362486586628913</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1.194806756563795</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>0.3555470370770522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.3394256349377583</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.5577805856377203</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.078942917821512</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.7525673425783421</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>107.6232914195061</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>271.4837599719074</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91668.27794432815</v>
+        <v>-102370.3885772895</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34918146.52574431</v>
+        <v>34116371.43442551</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19463052.19146675</v>
+        <v>15236585.47227999</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211373.669767007</v>
+        <v>1828587.538778726</v>
       </c>
     </row>
     <row r="11">
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>96.69576954724258</v>
       </c>
       <c r="D23" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3.262548922260276</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>2.873653090726851</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H24" t="n">
-        <v>3.262548922260276</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>3.262548922260276</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V24" t="n">
-        <v>3.262548922260276</v>
+        <v>197.1263427586198</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="25">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>107.3911271878416</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>3.262548922260276</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>232.7040749540433</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>3.262548922260276</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U26" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>2.873653090726851</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H27" t="n">
-        <v>3.262548922260276</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>3.262548922260276</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T27" t="n">
-        <v>2.873653090726851</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>174.5263742585034</v>
       </c>
       <c r="V27" t="n">
-        <v>3.262548922260276</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="28">
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>3.262548922260276</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V28" t="n">
-        <v>2.873653090726851</v>
+        <v>9.724914747078389</v>
       </c>
       <c r="W28" t="n">
-        <v>3.262548922260276</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>3.262548922260276</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
-        <v>3.262548922260276</v>
+        <v>59.31584902742056</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.873653090726851</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>83.81976830925467</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>3.262548922260276</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V30" t="n">
-        <v>3.262548922260276</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W30" t="n">
-        <v>3.262548922260276</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="31">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.262548922260276</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>3.262548922260276</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>259.9667169864598</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C32" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D32" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>319.0584609077547</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>3.262548922260276</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H33" t="n">
-        <v>3.262548922260276</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T33" t="n">
-        <v>2.873653090726851</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V33" t="n">
-        <v>3.262548922260276</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="34">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H34" t="n">
-        <v>3.262548922260276</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I34" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>154.5357001961252</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="C35" t="n">
-        <v>2.873653090726852</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3.262548922260278</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>3.262548922260278</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.262548922260278</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>351.9377502371676</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>2.873653090726851</v>
+        <v>83.81976830925467</v>
       </c>
       <c r="H36" t="n">
-        <v>3.262548922260278</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>3.262548922260278</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V36" t="n">
-        <v>3.262548922260278</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="37">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>180.7978889210348</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T37" t="n">
-        <v>2.873653090726853</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V37" t="n">
-        <v>3.262548922260278</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>3.262548922260278</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.262548922260278</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.262548922260278</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="C38" t="n">
-        <v>2.873653090726853</v>
+        <v>6.801812326282343</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>3.262548922260278</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.262548922260278</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E39" t="n">
-        <v>2.873653090726853</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F39" t="n">
-        <v>3.262548922260278</v>
+        <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H39" t="n">
-        <v>3.262548922260278</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>174.5263742585034</v>
       </c>
       <c r="V39" t="n">
-        <v>3.262548922260278</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="40">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>2.873653090726853</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>3.262548922260278</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>3.262548922260278</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.262548922260278</v>
+        <v>132.9363922222336</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>3.262548922260278</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>3.262548922260278</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.262548922260278</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.873653090726853</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>84.8437244539605</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C42" t="n">
-        <v>2.873653090726853</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D42" t="n">
-        <v>3.262548922260278</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E42" t="n">
-        <v>3.262548922260278</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>126.0091317304328</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W42" t="n">
-        <v>3.262548922260278</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="43">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.873653090726853</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>3.262548922260278</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>3.262548922260278</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>3.262548922260278</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>269.2562189025497</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>185.104588796355</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>396.054118850051</v>
+        <v>232.7040749540433</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>212.0456433386444</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4109,7 +4109,7 @@
         <v>49.60563018141188</v>
       </c>
       <c r="T45" t="n">
-        <v>126.0091317304331</v>
+        <v>126.0091317304328</v>
       </c>
       <c r="U45" t="n">
         <v>174.5263742585036</v>
@@ -4143,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H46" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>88.54113086355349</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>73.04579089127152</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.556507875659889</v>
+        <v>806.5564676196835</v>
       </c>
       <c r="C23" t="n">
-        <v>3.556507875659889</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2610039137808221</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2610039137808221</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2610039137808221</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2610039137808221</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2610039137808221</v>
+        <v>83.79828774524184</v>
       </c>
       <c r="J23" t="n">
-        <v>1.160310701713749</v>
+        <v>195.5292216073323</v>
       </c>
       <c r="K23" t="n">
-        <v>2.50813845558963</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L23" t="n">
-        <v>4.180237967355345</v>
+        <v>570.7285396968682</v>
       </c>
       <c r="M23" t="n">
-        <v>6.040770853278584</v>
+        <v>801.8833353847198</v>
       </c>
       <c r="N23" t="n">
-        <v>7.931409106423307</v>
+        <v>1036.778457331699</v>
       </c>
       <c r="O23" t="n">
-        <v>9.716685196678938</v>
+        <v>1258.583260144775</v>
       </c>
       <c r="P23" t="n">
-        <v>11.24037703589</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q23" t="n">
-        <v>12.38460615143387</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R23" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425298</v>
       </c>
       <c r="S23" t="n">
-        <v>13.05019568904111</v>
+        <v>1619.698045908997</v>
       </c>
       <c r="T23" t="n">
-        <v>13.05019568904111</v>
+        <v>1619.698045908997</v>
       </c>
       <c r="U23" t="n">
-        <v>9.754691727162038</v>
+        <v>1619.698045908997</v>
       </c>
       <c r="V23" t="n">
-        <v>9.754691727162038</v>
+        <v>1619.698045908997</v>
       </c>
       <c r="W23" t="n">
-        <v>6.459187765282971</v>
+        <v>1214.84259132003</v>
       </c>
       <c r="X23" t="n">
-        <v>3.556507875659889</v>
+        <v>1214.84259132003</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.556507875659889</v>
+        <v>806.5564676196835</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.459187765282971</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C24" t="n">
-        <v>6.459187765282971</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D24" t="n">
-        <v>6.459187765282971</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E24" t="n">
-        <v>6.459187765282971</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F24" t="n">
-        <v>6.459187765282971</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G24" t="n">
-        <v>3.556507875659889</v>
+        <v>68.2497881259455</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4561956203818615</v>
+        <v>57.70569792707139</v>
       </c>
       <c r="J24" t="n">
-        <v>3.686119053419535</v>
+        <v>448.8102016680198</v>
       </c>
       <c r="K24" t="n">
-        <v>4.601580589971187</v>
+        <v>562.5482205134521</v>
       </c>
       <c r="L24" t="n">
-        <v>5.832531600835448</v>
+        <v>715.4830229944561</v>
       </c>
       <c r="M24" t="n">
-        <v>7.268993370305773</v>
+        <v>893.9507240211725</v>
       </c>
       <c r="N24" t="n">
-        <v>8.74347400848858</v>
+        <v>1077.141934046848</v>
       </c>
       <c r="O24" t="n">
-        <v>10.0923357292512</v>
+        <v>1244.726101912458</v>
       </c>
       <c r="P24" t="n">
-        <v>11.17491617791312</v>
+        <v>1379.227171105831</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.89859253828467</v>
+        <v>1511.837902771599</v>
       </c>
       <c r="R24" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425298</v>
       </c>
       <c r="S24" t="n">
-        <v>9.754691727162038</v>
+        <v>1622.635830272357</v>
       </c>
       <c r="T24" t="n">
-        <v>9.754691727162038</v>
+        <v>1495.353879029495</v>
       </c>
       <c r="U24" t="n">
-        <v>9.754691727162038</v>
+        <v>1319.064612101714</v>
       </c>
       <c r="V24" t="n">
-        <v>6.459187765282971</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W24" t="n">
-        <v>6.459187765282971</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X24" t="n">
-        <v>6.459187765282971</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.459187765282971</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.556507875659889</v>
+        <v>541.0286743895209</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2610039137808221</v>
+        <v>541.0286743895209</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2610039137808221</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2610039137808221</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2610039137808221</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850597</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5970352923692026</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K25" t="n">
-        <v>1.149238072150545</v>
+        <v>505.1482476164478</v>
       </c>
       <c r="L25" t="n">
-        <v>1.888057477265406</v>
+        <v>592.9407211490369</v>
       </c>
       <c r="M25" t="n">
-        <v>2.633099146417964</v>
+        <v>1006.944496686798</v>
       </c>
       <c r="N25" t="n">
-        <v>3.360425389928086</v>
+        <v>1097.308365280052</v>
       </c>
       <c r="O25" t="n">
-        <v>6.590348822965759</v>
+        <v>1180.774023741877</v>
       </c>
       <c r="P25" t="n">
-        <v>9.820272256003433</v>
+        <v>1449.542946114065</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.05019568904111</v>
+        <v>1667.182735391304</v>
       </c>
       <c r="R25" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425298</v>
       </c>
       <c r="S25" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425298</v>
       </c>
       <c r="T25" t="n">
-        <v>10.14751579941802</v>
+        <v>1672.742527425298</v>
       </c>
       <c r="U25" t="n">
-        <v>10.14751579941802</v>
+        <v>1394.342390204033</v>
       </c>
       <c r="V25" t="n">
-        <v>10.14751579941802</v>
+        <v>1285.866504155709</v>
       </c>
       <c r="W25" t="n">
-        <v>10.14751579941802</v>
+        <v>1013.840099742</v>
       </c>
       <c r="X25" t="n">
-        <v>6.852011837538956</v>
+        <v>768.4483450754126</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.852011837538956</v>
+        <v>541.0286743895209</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2610039137808221</v>
+        <v>83.79828774524211</v>
       </c>
       <c r="J26" t="n">
-        <v>1.160310701713749</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K26" t="n">
-        <v>2.50813845558963</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L26" t="n">
-        <v>4.180237967355344</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M26" t="n">
-        <v>6.040770853278584</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N26" t="n">
-        <v>7.931409106423309</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O26" t="n">
-        <v>9.71668519667894</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P26" t="n">
-        <v>11.24037703589</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q26" t="n">
-        <v>12.38460615143387</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R26" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S26" t="n">
-        <v>9.754691727162038</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T26" t="n">
-        <v>6.459187765282971</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U26" t="n">
-        <v>3.163683803403904</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V26" t="n">
-        <v>0.2610039137808221</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2610039137808221</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="X26" t="n">
-        <v>0.2610039137808221</v>
+        <v>676.7955954145528</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.2610039137808221</v>
+        <v>268.5094717142063</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.556507875659889</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C27" t="n">
-        <v>3.556507875659889</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D27" t="n">
-        <v>3.556507875659889</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E27" t="n">
-        <v>3.556507875659889</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F27" t="n">
-        <v>3.556507875659889</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G27" t="n">
-        <v>3.556507875659889</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4561956203818616</v>
+        <v>57.70569792707141</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9918165824064465</v>
+        <v>448.8102016680198</v>
       </c>
       <c r="K27" t="n">
-        <v>1.907278118958099</v>
+        <v>562.5482205134522</v>
       </c>
       <c r="L27" t="n">
-        <v>3.138229129822361</v>
+        <v>715.4830229944562</v>
       </c>
       <c r="M27" t="n">
-        <v>4.574690899292685</v>
+        <v>893.9507240211726</v>
       </c>
       <c r="N27" t="n">
-        <v>6.049171537475493</v>
+        <v>1077.141934046848</v>
       </c>
       <c r="O27" t="n">
-        <v>8.014015446969966</v>
+        <v>1244.726101912458</v>
       </c>
       <c r="P27" t="n">
-        <v>9.096595895631884</v>
+        <v>1379.227171105832</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.820272256003433</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R27" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S27" t="n">
-        <v>9.754691727162038</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T27" t="n">
-        <v>6.852011837538956</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U27" t="n">
-        <v>6.852011837538956</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V27" t="n">
-        <v>3.556507875659889</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W27" t="n">
-        <v>3.556507875659889</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X27" t="n">
-        <v>3.556507875659889</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.556507875659889</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.556507875659889</v>
+        <v>718.3596126512649</v>
       </c>
       <c r="C28" t="n">
-        <v>3.556507875659889</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2610039137808221</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2610039137808221</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J28" t="n">
-        <v>3.490927346818495</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K28" t="n">
-        <v>6.720850779856169</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L28" t="n">
-        <v>7.427480221213296</v>
+        <v>919.1520231542092</v>
       </c>
       <c r="M28" t="n">
-        <v>8.172521890365854</v>
+        <v>1204.29412910683</v>
       </c>
       <c r="N28" t="n">
-        <v>8.899848133875976</v>
+        <v>1294.657997700084</v>
       </c>
       <c r="O28" t="n">
-        <v>9.571651640921385</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P28" t="n">
-        <v>10.14649559884087</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.05019568904111</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R28" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S28" t="n">
-        <v>13.05019568904111</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T28" t="n">
-        <v>13.05019568904111</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U28" t="n">
-        <v>13.05019568904111</v>
+        <v>1245.600917940731</v>
       </c>
       <c r="V28" t="n">
-        <v>10.14751579941802</v>
+        <v>1235.777771731561</v>
       </c>
       <c r="W28" t="n">
-        <v>6.852011837538956</v>
+        <v>963.7513673178524</v>
       </c>
       <c r="X28" t="n">
-        <v>3.556507875659889</v>
+        <v>718.3596126512649</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.556507875659889</v>
+        <v>718.3596126512649</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.754691727162038</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="C29" t="n">
-        <v>6.852011837538956</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="D29" t="n">
-        <v>3.556507875659889</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="E29" t="n">
-        <v>3.556507875659889</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2610039137808221</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2610039137808221</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2610039137808221</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J29" t="n">
-        <v>1.160310701713749</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K29" t="n">
-        <v>2.508138455589629</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L29" t="n">
-        <v>4.180237967355346</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M29" t="n">
-        <v>6.040770853278585</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N29" t="n">
-        <v>7.931409106423309</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O29" t="n">
-        <v>9.71668519667894</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P29" t="n">
-        <v>11.24037703589</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q29" t="n">
-        <v>12.38460615143387</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R29" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S29" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T29" t="n">
-        <v>13.05019568904111</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U29" t="n">
-        <v>13.05019568904111</v>
+        <v>1199.440159488163</v>
       </c>
       <c r="V29" t="n">
-        <v>9.754691727162038</v>
+        <v>1139.525160470567</v>
       </c>
       <c r="W29" t="n">
-        <v>9.754691727162038</v>
+        <v>1139.525160470567</v>
       </c>
       <c r="X29" t="n">
-        <v>9.754691727162038</v>
+        <v>1139.525160470567</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.754691727162038</v>
+        <v>731.2390367702201</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2610039137808221</v>
+        <v>531.9672238352455</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2610039137808221</v>
+        <v>425.5107626718877</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2610039137808221</v>
+        <v>330.420473818441</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2610039137808221</v>
+        <v>236.3000591453947</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2610039137808221</v>
+        <v>152.9162207615563</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2610039137808221</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I30" t="n">
-        <v>3.490927346818495</v>
+        <v>57.70569792707141</v>
       </c>
       <c r="J30" t="n">
-        <v>4.485730637469688</v>
+        <v>448.8102016680198</v>
       </c>
       <c r="K30" t="n">
-        <v>5.40119217402134</v>
+        <v>562.5482205134522</v>
       </c>
       <c r="L30" t="n">
-        <v>6.632143184885602</v>
+        <v>715.4830229944562</v>
       </c>
       <c r="M30" t="n">
-        <v>8.068604954355926</v>
+        <v>893.9507240211726</v>
       </c>
       <c r="N30" t="n">
-        <v>9.543085592538734</v>
+        <v>1077.141934046848</v>
       </c>
       <c r="O30" t="n">
-        <v>10.89194731330136</v>
+        <v>1244.726101912458</v>
       </c>
       <c r="P30" t="n">
-        <v>11.97452776196327</v>
+        <v>1379.227171105832</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.69820412233482</v>
+        <v>1629.01068086594</v>
       </c>
       <c r="R30" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S30" t="n">
-        <v>9.754691727162038</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T30" t="n">
-        <v>9.754691727162038</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U30" t="n">
-        <v>9.754691727162038</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V30" t="n">
-        <v>6.459187765282971</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W30" t="n">
-        <v>3.163683803403904</v>
+        <v>934.6243398969079</v>
       </c>
       <c r="X30" t="n">
-        <v>3.163683803403904</v>
+        <v>779.7569041357879</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.163683803403904</v>
+        <v>653.2711249150086</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.556507875659889</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2610039137808221</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2610039137808221</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2610039137808221</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J31" t="n">
-        <v>3.490927346818495</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K31" t="n">
-        <v>6.720850779856169</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L31" t="n">
-        <v>9.933188151431848</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M31" t="n">
-        <v>10.67822982058441</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N31" t="n">
-        <v>11.40555606409453</v>
+        <v>775.8694436693074</v>
       </c>
       <c r="O31" t="n">
-        <v>12.07735957113994</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P31" t="n">
-        <v>12.65220352905942</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.05019568904111</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R31" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S31" t="n">
-        <v>9.754691727162038</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T31" t="n">
-        <v>9.754691727162038</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U31" t="n">
-        <v>9.754691727162038</v>
+        <v>1245.600917940731</v>
       </c>
       <c r="V31" t="n">
-        <v>9.754691727162038</v>
+        <v>983.0082745200646</v>
       </c>
       <c r="W31" t="n">
-        <v>9.754691727162038</v>
+        <v>983.0082745200646</v>
       </c>
       <c r="X31" t="n">
-        <v>9.754691727162038</v>
+        <v>737.616519853477</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.852011837538956</v>
+        <v>737.616519853477</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.05019568904111</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="C32" t="n">
-        <v>9.754691727162038</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D32" t="n">
-        <v>6.459187765282971</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E32" t="n">
-        <v>3.556507875659889</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2610039137808193</v>
+        <v>83.79828774524252</v>
       </c>
       <c r="J32" t="n">
-        <v>1.160310701713747</v>
+        <v>195.5292216073331</v>
       </c>
       <c r="K32" t="n">
-        <v>2.508138455589628</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L32" t="n">
-        <v>4.180237967355343</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M32" t="n">
-        <v>6.040770853278583</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N32" t="n">
-        <v>7.931409106423307</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O32" t="n">
-        <v>9.71668519667894</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P32" t="n">
-        <v>11.24037703589</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q32" t="n">
-        <v>12.38460615143388</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R32" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S32" t="n">
-        <v>13.05019568904111</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T32" t="n">
-        <v>13.05019568904111</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U32" t="n">
-        <v>13.05019568904111</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V32" t="n">
-        <v>13.05019568904111</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="W32" t="n">
-        <v>13.05019568904111</v>
+        <v>1297.416772264801</v>
       </c>
       <c r="X32" t="n">
-        <v>13.05019568904111</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="Y32" t="n">
-        <v>13.05019568904111</v>
+        <v>878.2743088441118</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.852011837538956</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C33" t="n">
-        <v>6.852011837538956</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D33" t="n">
-        <v>6.852011837538956</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E33" t="n">
-        <v>6.852011837538956</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F33" t="n">
-        <v>6.852011837538956</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G33" t="n">
-        <v>3.556507875659889</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I33" t="n">
-        <v>1.072177809113709</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J33" t="n">
-        <v>1.607798771138294</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K33" t="n">
-        <v>2.523260307689946</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L33" t="n">
-        <v>3.754211318554209</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M33" t="n">
-        <v>5.190673088024535</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N33" t="n">
-        <v>6.665153726207342</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O33" t="n">
-        <v>8.014015446969966</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P33" t="n">
-        <v>9.096595895631884</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.820272256003433</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R33" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S33" t="n">
-        <v>13.05019568904111</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T33" t="n">
-        <v>10.14751579941802</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U33" t="n">
-        <v>10.14751579941802</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V33" t="n">
-        <v>6.852011837538956</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W33" t="n">
-        <v>6.852011837538956</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X33" t="n">
-        <v>6.852011837538956</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y33" t="n">
-        <v>6.852011837538956</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.852011837538956</v>
+        <v>852.0158164890601</v>
       </c>
       <c r="C34" t="n">
-        <v>6.852011837538956</v>
+        <v>679.454104972285</v>
       </c>
       <c r="D34" t="n">
-        <v>6.852011837538956</v>
+        <v>679.454104972285</v>
       </c>
       <c r="E34" t="n">
-        <v>6.852011837538956</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="F34" t="n">
-        <v>6.852011837538956</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G34" t="n">
-        <v>6.852011837538956</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H34" t="n">
-        <v>3.556507875659889</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J34" t="n">
-        <v>3.490927346818495</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K34" t="n">
-        <v>4.043130126599839</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L34" t="n">
-        <v>4.749759567956966</v>
+        <v>231.6025814132115</v>
       </c>
       <c r="M34" t="n">
-        <v>7.846298547528415</v>
+        <v>531.1715264452896</v>
       </c>
       <c r="N34" t="n">
-        <v>8.573624791038538</v>
+        <v>621.5353950385435</v>
       </c>
       <c r="O34" t="n">
-        <v>9.245428298083949</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P34" t="n">
-        <v>9.820272256003433</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.05019568904111</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R34" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S34" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T34" t="n">
-        <v>9.754691727162038</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U34" t="n">
-        <v>9.754691727162038</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V34" t="n">
-        <v>6.852011837538956</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W34" t="n">
-        <v>6.852011837538956</v>
+        <v>1516.645860560526</v>
       </c>
       <c r="X34" t="n">
-        <v>6.852011837538956</v>
+        <v>1271.254105893939</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.852011837538956</v>
+        <v>1043.834435208047</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.754691727162042</v>
+        <v>433.509516053608</v>
       </c>
       <c r="C35" t="n">
-        <v>6.852011837538959</v>
+        <v>433.509516053608</v>
       </c>
       <c r="D35" t="n">
-        <v>3.556507875659891</v>
+        <v>433.509516053608</v>
       </c>
       <c r="E35" t="n">
-        <v>3.556507875659891</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2610039137808222</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2610039137808222</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2610039137808222</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2610039137808223</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J35" t="n">
-        <v>1.16031070171375</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K35" t="n">
-        <v>2.508138455589631</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L35" t="n">
-        <v>4.180237967355347</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M35" t="n">
-        <v>6.040770853278586</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N35" t="n">
-        <v>7.931409106423311</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O35" t="n">
-        <v>9.716685196678942</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P35" t="n">
-        <v>11.24037703589</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q35" t="n">
-        <v>12.38460615143388</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R35" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S35" t="n">
-        <v>9.754691727162042</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T35" t="n">
-        <v>9.754691727162042</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U35" t="n">
-        <v>9.754691727162042</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V35" t="n">
-        <v>9.754691727162042</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="W35" t="n">
-        <v>9.754691727162042</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="X35" t="n">
-        <v>9.754691727162042</v>
+        <v>1264.205368901758</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.754691727162042</v>
+        <v>855.9192452014108</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.459187765282973</v>
+        <v>531.9672238352455</v>
       </c>
       <c r="C36" t="n">
-        <v>6.459187765282973</v>
+        <v>425.5107626718877</v>
       </c>
       <c r="D36" t="n">
-        <v>6.459187765282973</v>
+        <v>330.420473818441</v>
       </c>
       <c r="E36" t="n">
-        <v>6.459187765282973</v>
+        <v>236.3000591453947</v>
       </c>
       <c r="F36" t="n">
-        <v>6.459187765282973</v>
+        <v>152.9162207615563</v>
       </c>
       <c r="G36" t="n">
-        <v>3.556507875659891</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2610039137808222</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4561956203818617</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J36" t="n">
-        <v>1.607798771138298</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K36" t="n">
-        <v>2.52326030768995</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L36" t="n">
-        <v>3.754211318554213</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M36" t="n">
-        <v>5.190673088024538</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N36" t="n">
-        <v>6.665153726207346</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O36" t="n">
-        <v>8.014015446969969</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P36" t="n">
-        <v>9.096595895631888</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.820272256003436</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R36" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S36" t="n">
-        <v>9.754691727162042</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T36" t="n">
-        <v>9.754691727162042</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U36" t="n">
-        <v>9.754691727162042</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V36" t="n">
-        <v>6.459187765282973</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W36" t="n">
-        <v>6.459187765282973</v>
+        <v>934.6243398969079</v>
       </c>
       <c r="X36" t="n">
-        <v>6.459187765282973</v>
+        <v>779.7569041357879</v>
       </c>
       <c r="Y36" t="n">
-        <v>6.459187765282973</v>
+        <v>653.2711249150086</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2610039137808222</v>
+        <v>548.6016089020022</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2610039137808222</v>
+        <v>376.0398973852271</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2610039137808222</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2610039137808222</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2610039137808222</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2610039137808222</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2610039137808222</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2610039137808222</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J37" t="n">
-        <v>3.490927346818497</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K37" t="n">
-        <v>6.720850779856172</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L37" t="n">
-        <v>7.4274802212133</v>
+        <v>769.1447895942085</v>
       </c>
       <c r="M37" t="n">
-        <v>8.172521890365859</v>
+        <v>861.7096435212253</v>
       </c>
       <c r="N37" t="n">
-        <v>8.899848133875981</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O37" t="n">
-        <v>9.571651640921392</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P37" t="n">
-        <v>10.14649559884087</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.05019568904111</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R37" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S37" t="n">
-        <v>13.05019568904111</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T37" t="n">
-        <v>10.14751579941803</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U37" t="n">
-        <v>10.14751579941803</v>
+        <v>1245.600917940731</v>
       </c>
       <c r="V37" t="n">
-        <v>6.852011837538959</v>
+        <v>958.6454098111615</v>
       </c>
       <c r="W37" t="n">
-        <v>6.852011837538959</v>
+        <v>958.6454098111615</v>
       </c>
       <c r="X37" t="n">
-        <v>3.556507875659891</v>
+        <v>958.6454098111615</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2610039137808222</v>
+        <v>731.2257391252697</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.754691727162044</v>
+        <v>315.6998251237125</v>
       </c>
       <c r="C38" t="n">
-        <v>6.85201183753896</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="D38" t="n">
-        <v>6.85201183753896</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="E38" t="n">
-        <v>6.85201183753896</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="F38" t="n">
-        <v>3.556507875659891</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2610039137808223</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2610039137808223</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2610039137808224</v>
+        <v>83.79828774524206</v>
       </c>
       <c r="J38" t="n">
-        <v>1.16031070171375</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K38" t="n">
-        <v>2.508138455589631</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L38" t="n">
-        <v>4.180237967355347</v>
+        <v>570.7285396968686</v>
       </c>
       <c r="M38" t="n">
-        <v>6.040770853278587</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N38" t="n">
-        <v>7.931409106423312</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O38" t="n">
-        <v>9.716685196678945</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P38" t="n">
-        <v>11.24037703589001</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q38" t="n">
-        <v>12.38460615143388</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R38" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S38" t="n">
-        <v>13.05019568904111</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T38" t="n">
-        <v>13.05019568904111</v>
+        <v>1405.510527385114</v>
       </c>
       <c r="U38" t="n">
-        <v>13.05019568904111</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V38" t="n">
-        <v>13.05019568904111</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="W38" t="n">
-        <v>13.05019568904111</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="X38" t="n">
-        <v>13.05019568904111</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.05019568904111</v>
+        <v>738.1095542715153</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>9.754691727162044</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C39" t="n">
-        <v>9.754691727162044</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D39" t="n">
-        <v>9.754691727162044</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E39" t="n">
-        <v>6.85201183753896</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F39" t="n">
-        <v>3.556507875659891</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G39" t="n">
-        <v>3.556507875659891</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2610039137808223</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I39" t="n">
-        <v>3.490927346818498</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J39" t="n">
-        <v>4.026548308843083</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K39" t="n">
-        <v>4.942009845394735</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L39" t="n">
-        <v>6.172960856258999</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M39" t="n">
-        <v>7.609422625729323</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N39" t="n">
-        <v>9.083903263912132</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O39" t="n">
-        <v>10.43276498467476</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P39" t="n">
-        <v>11.51534543333667</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q39" t="n">
-        <v>12.23902179370822</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R39" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S39" t="n">
-        <v>13.05019568904111</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T39" t="n">
-        <v>13.05019568904111</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U39" t="n">
-        <v>13.05019568904111</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V39" t="n">
-        <v>9.754691727162044</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W39" t="n">
-        <v>9.754691727162044</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X39" t="n">
-        <v>9.754691727162044</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.754691727162044</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.163683803403906</v>
+        <v>676.1979782449997</v>
       </c>
       <c r="C40" t="n">
-        <v>3.163683803403906</v>
+        <v>503.6362667282247</v>
       </c>
       <c r="D40" t="n">
-        <v>3.163683803403906</v>
+        <v>337.7582739297474</v>
       </c>
       <c r="E40" t="n">
-        <v>3.163683803403906</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2610039137808223</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2610039137808223</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2610039137808223</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2610039137808223</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5970352923692029</v>
+        <v>75.20378455015357</v>
       </c>
       <c r="K40" t="n">
-        <v>1.149238072150546</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L40" t="n">
-        <v>4.379161505188221</v>
+        <v>557.8138834183839</v>
       </c>
       <c r="M40" t="n">
-        <v>5.124203174340781</v>
+        <v>650.3787373454006</v>
       </c>
       <c r="N40" t="n">
-        <v>5.851529417850903</v>
+        <v>740.7426059386543</v>
       </c>
       <c r="O40" t="n">
-        <v>6.590348822965763</v>
+        <v>1154.746381476416</v>
       </c>
       <c r="P40" t="n">
-        <v>9.820272256003438</v>
+        <v>1568.750157014177</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05019568904111</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R40" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S40" t="n">
-        <v>13.05019568904111</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T40" t="n">
-        <v>13.05019568904111</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U40" t="n">
-        <v>13.05019568904111</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="V40" t="n">
-        <v>13.05019568904111</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="W40" t="n">
-        <v>9.754691727162044</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="X40" t="n">
-        <v>6.459187765282975</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.163683803403906</v>
+        <v>868.0165969639868</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13.05019568904111</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C41" t="n">
-        <v>9.754691727162044</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D41" t="n">
-        <v>6.459187765282975</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E41" t="n">
-        <v>3.163683803403906</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2610039137808223</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2610039137808223</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2610039137808223</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2610039137808219</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J41" t="n">
-        <v>1.160310701713749</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K41" t="n">
-        <v>2.508138455589631</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L41" t="n">
-        <v>4.180237967355347</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M41" t="n">
-        <v>6.040770853278587</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N41" t="n">
-        <v>7.931409106423311</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O41" t="n">
-        <v>9.716685196678943</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P41" t="n">
-        <v>11.24037703589001</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q41" t="n">
-        <v>12.38460615143388</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R41" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S41" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T41" t="n">
-        <v>13.05019568904111</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U41" t="n">
-        <v>13.05019568904111</v>
+        <v>1199.440159488163</v>
       </c>
       <c r="V41" t="n">
-        <v>13.05019568904111</v>
+        <v>1199.440159488163</v>
       </c>
       <c r="W41" t="n">
-        <v>13.05019568904111</v>
+        <v>794.5847048991966</v>
       </c>
       <c r="X41" t="n">
-        <v>13.05019568904111</v>
+        <v>794.5847048991966</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.05019568904111</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9.754691727162044</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C42" t="n">
-        <v>6.85201183753896</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D42" t="n">
-        <v>3.556507875659891</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2610039137808223</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2610039137808223</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2610039137808223</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2610039137808223</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I42" t="n">
-        <v>3.490927346818498</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J42" t="n">
-        <v>4.026548308843083</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K42" t="n">
-        <v>4.942009845394735</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L42" t="n">
-        <v>6.172960856258999</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M42" t="n">
-        <v>7.609422625729323</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N42" t="n">
-        <v>9.083903263912132</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O42" t="n">
-        <v>10.43276498467476</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P42" t="n">
-        <v>11.51534543333667</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.69820412233483</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R42" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S42" t="n">
-        <v>13.05019568904111</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T42" t="n">
-        <v>13.05019568904111</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U42" t="n">
-        <v>13.05019568904111</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V42" t="n">
-        <v>13.05019568904111</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W42" t="n">
-        <v>9.754691727162044</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X42" t="n">
-        <v>9.754691727162044</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.754691727162044</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.14751579941803</v>
+        <v>883.3483896555588</v>
       </c>
       <c r="C43" t="n">
-        <v>6.85201183753896</v>
+        <v>710.7866781387837</v>
       </c>
       <c r="D43" t="n">
-        <v>3.556507875659891</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="E43" t="n">
-        <v>3.556507875659891</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2610039137808223</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2610039137808223</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2610039137808223</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2610039137808223</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5970352923692029</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K43" t="n">
-        <v>1.149238072150546</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L43" t="n">
-        <v>2.217391560793843</v>
+        <v>769.1447895942085</v>
       </c>
       <c r="M43" t="n">
-        <v>2.962433229946402</v>
+        <v>861.7096435212253</v>
       </c>
       <c r="N43" t="n">
-        <v>6.192356662984077</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O43" t="n">
-        <v>9.422280096021751</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P43" t="n">
-        <v>12.65220352905943</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05019568904111</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R43" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S43" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T43" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U43" t="n">
-        <v>13.05019568904111</v>
+        <v>1400.766548735855</v>
       </c>
       <c r="V43" t="n">
-        <v>13.05019568904111</v>
+        <v>1400.766548735855</v>
       </c>
       <c r="W43" t="n">
-        <v>13.05019568904111</v>
+        <v>1128.740144322146</v>
       </c>
       <c r="X43" t="n">
-        <v>13.05019568904111</v>
+        <v>883.3483896555588</v>
       </c>
       <c r="Y43" t="n">
-        <v>13.05019568904111</v>
+        <v>883.3483896555588</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1042.893577318941</v>
+        <v>268.5094717142063</v>
       </c>
       <c r="C44" t="n">
-        <v>620.4838481711383</v>
+        <v>268.5094717142063</v>
       </c>
       <c r="D44" t="n">
-        <v>620.4838481711383</v>
+        <v>268.5094717142063</v>
       </c>
       <c r="E44" t="n">
-        <v>620.4838481711383</v>
+        <v>268.5094717142063</v>
       </c>
       <c r="F44" t="n">
-        <v>433.509516053608</v>
+        <v>268.5094717142063</v>
       </c>
       <c r="G44" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H44" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I44" t="n">
-        <v>83.79828774524233</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J44" t="n">
-        <v>195.5292216073329</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9849282099031</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L44" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8833353847205</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N44" t="n">
         <v>1036.7784573317</v>
@@ -7675,25 +7675,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S44" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T44" t="n">
-        <v>1405.510527385115</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U44" t="n">
-        <v>1405.510527385115</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V44" t="n">
-        <v>1042.893577318941</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="W44" t="n">
-        <v>1042.893577318941</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="X44" t="n">
-        <v>1042.893577318941</v>
+        <v>676.7955954145528</v>
       </c>
       <c r="Y44" t="n">
-        <v>1042.893577318941</v>
+        <v>268.5094717142063</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>531.967223835246</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C45" t="n">
-        <v>425.5107626718883</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D45" t="n">
-        <v>330.4204738184416</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E45" t="n">
-        <v>236.3000591453953</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F45" t="n">
-        <v>152.9162207615569</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G45" t="n">
         <v>68.24978812594551</v>
       </c>
       <c r="H45" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I45" t="n">
         <v>83.76937108752902</v>
@@ -7748,7 +7748,7 @@
         <v>1405.290844266289</v>
       </c>
       <c r="Q45" t="n">
-        <v>1511.8379027716</v>
+        <v>1629.01068086594</v>
       </c>
       <c r="R45" t="n">
         <v>1672.742527425299</v>
@@ -7757,7 +7757,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T45" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U45" t="n">
         <v>1319.064612101715</v>
@@ -7766,13 +7766,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W45" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X45" t="n">
-        <v>779.7569041357884</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y45" t="n">
-        <v>653.2711249150092</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>918.6769976330718</v>
+        <v>883.3483896555588</v>
       </c>
       <c r="C46" t="n">
-        <v>746.1152861162967</v>
+        <v>710.7866781387837</v>
       </c>
       <c r="D46" t="n">
-        <v>580.2372933178194</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="E46" t="n">
-        <v>580.2372933178194</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F46" t="n">
-        <v>403.5302392795757</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G46" t="n">
-        <v>238.5414622752818</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H46" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I46" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J46" t="n">
         <v>161.7834697148434</v>
@@ -7812,16 +7812,16 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L46" t="n">
-        <v>592.940721149037</v>
+        <v>919.1520231542094</v>
       </c>
       <c r="M46" t="n">
-        <v>1006.944496686799</v>
+        <v>1204.29412910683</v>
       </c>
       <c r="N46" t="n">
-        <v>1097.308365280052</v>
+        <v>1294.657997700084</v>
       </c>
       <c r="O46" t="n">
-        <v>1180.774023741878</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P46" t="n">
         <v>1449.542946114066</v>
@@ -7839,19 +7839,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U46" t="n">
-        <v>1583.307041704538</v>
+        <v>1394.342390204034</v>
       </c>
       <c r="V46" t="n">
-        <v>1583.307041704538</v>
+        <v>1320.558763041133</v>
       </c>
       <c r="W46" t="n">
-        <v>1583.307041704538</v>
+        <v>1320.558763041133</v>
       </c>
       <c r="X46" t="n">
-        <v>1337.915287037951</v>
+        <v>1075.167008374546</v>
       </c>
       <c r="Y46" t="n">
-        <v>1110.495616352059</v>
+        <v>1075.167008374546</v>
       </c>
     </row>
   </sheetData>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.721517647487969</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>43.13164530277413</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8076884687375312</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03251511490680192</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>324.6857794047925</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>2.583959521204308</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.681898459715344</v>
+        <v>199.3430630505372</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.860536639450492</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.6222042310422733</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>43.13164530277459</v>
       </c>
       <c r="R27" t="n">
-        <v>2.907001885183223</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.923123287322518</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>2.704768336622556</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>194.5224767935399</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.531018111331871</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.065385582259226</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4638205339662702</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>161.4879868122086</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.923123287322518</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>2.704768336622556</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>2.531018111331871</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10284,13 +10284,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>177.9839075203753</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6222042310422701</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>16.80470271645413</v>
       </c>
       <c r="R33" t="n">
-        <v>2.907001885183224</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.923123287322518</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10515,19 +10515,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>2.37524980850393</v>
+        <v>209.095041520264</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.860536639450491</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0.6222042310422736</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>16.80470271645368</v>
       </c>
       <c r="R36" t="n">
-        <v>2.907001885183225</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.923123287322519</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>2.704768336622558</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>177.9839075203753</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.531018111331869</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.065385582259228</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>16.80470271645368</v>
       </c>
       <c r="R39" t="n">
-        <v>0.4638205339662697</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.548781809778331</v>
+        <v>329.5063656617903</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.06769282633277918</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P40" t="n">
-        <v>2.681898459715345</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.860536639450493</v>
+        <v>49.48036764062704</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.065385582259228</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4638205339662708</v>
+        <v>16.80470271645368</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3651758053395652</v>
+        <v>177.9839075203753</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.527875949017731</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.583959521204309</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.681898459715346</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>16.80470271645413</v>
+        <v>135.1610442258877</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M46" t="n">
-        <v>324.6857794047927</v>
+        <v>194.5224767935396</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>199.3430630505374</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -24208,10 +24208,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>337.0652785411684</v>
       </c>
       <c r="D23" t="n">
-        <v>428.2881380550396</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -24220,10 +24220,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.819703146337</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U23" t="n">
-        <v>253.3666745061949</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>397.5443511208167</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>412.0773856957555</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>81.65185921816891</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>38.00044053909289</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>59.45196651563608</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>128.8537753079323</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>174.5728047847957</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>193.8637938363604</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="W24" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>186.637883609537</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>167.573545479347</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4604679489429</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I25" t="n">
-        <v>87.62897272389382</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.5652879271376</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T25" t="n">
-        <v>240.5264858090711</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6484088706061</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>176.6948258604323</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>239.6752881976614</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>189.3324998260154</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -24457,10 +24457,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3731502167427</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H26" t="n">
-        <v>286.1292424873029</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.30891504736402</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T26" t="n">
-        <v>214.5571542240768</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.3666745061949</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V26" t="n">
-        <v>356.1171274747849</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>84.52551230889576</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>38.00044053909289</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>59.45196651563608</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>125.9801222172054</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>174.5728047847957</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>193.8637938363604</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24603,25 +24603,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>160.9566639482323</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9305612960722</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4604679489429</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
-        <v>87.62897272389382</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.400138899798</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6484088706061</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>281.212299957547</v>
+        <v>274.3610383011954</v>
       </c>
       <c r="W28" t="n">
-        <v>266.0435914473111</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>239.6752881976614</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -24682,22 +24682,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>430.8873949976841</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>428.2881380550396</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>420.326206372624</v>
+        <v>5.403123438559589</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3731502167427</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H29" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.5714639696243</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T29" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>355.7282316432514</v>
+        <v>299.6749315380912</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24748,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>117.2172089782387</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>84.52551230889576</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>41.26298946135317</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>59.45196651563608</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>128.8537753079323</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>174.5728047847957</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>193.8637938363604</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>180.2069778018777</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>186.637883609537</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.573545479347</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9305612960722</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4604679489429</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I31" t="n">
-        <v>87.62897272389382</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>154.3027390048774</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.400138899798</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6484088706061</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>24.11923606181404</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.2718208883059</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C32" t="n">
-        <v>430.4984991661506</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D32" t="n">
-        <v>428.2881380550396</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>426.5633443025609</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>420.326206372624</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3731502167427</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H32" t="n">
-        <v>286.1292424873029</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.819703146337</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6292234284552</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>81.74843913532226</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>81.26296338663548</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>38.00044053909289</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>62.71451543789636</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>125.9801222172054</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>174.5728047847957</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>193.8637938363604</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>135.1979190266826</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>84.36642380163354</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.5652879271376</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T34" t="n">
-        <v>240.1375899775377</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6484088706061</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V34" t="n">
-        <v>281.212299957547</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>114.7704401734462</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>3.850942923733953</v>
       </c>
       <c r="C35" t="n">
-        <v>430.8873949976841</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>428.2881380550396</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>420.326206372624</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.1292424873029</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>79.30891504736402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.819703146337</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6292234284552</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25219,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>63.01328854931484</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>81.65185921816891</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>38.00044053909289</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>59.45196651563608</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>128.8537753079323</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>174.5728047847957</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>193.8637938363604</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>9.102543610762467</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9305612960722</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4604679489429</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I37" t="n">
-        <v>87.62897272389382</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.5264858090711</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6484088706061</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>280.8234041260135</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>239.6752881976614</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>221.8829250567725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>418.7740258577984</v>
+        <v>3.850942923733953</v>
       </c>
       <c r="C38" t="n">
-        <v>430.8873949976841</v>
+        <v>426.9592357621286</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25402,13 +25402,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>420.326206372624</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>394.1106012944824</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H38" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>90.30555743558897</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>79.28745107773972</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>84.52551230889576</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>38.00044053909289</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>62.71451543789636</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>128.8537753079323</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>174.5728047847957</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>193.8637938363604</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>172.0663304071345</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9305612960722</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.62897272389382</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.400138899798</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6484088706061</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.0435914473111</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>239.6752881976614</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>221.8829250567725</v>
+        <v>92.20908175679921</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>430.4984991661506</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>428.2881380550396</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>426.1744484710275</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>420.7151022041575</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.5714639696243</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T41" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>319.3595380093826</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>102.5182434609973</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>90.876837042652</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>89.91666160405553</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>84.52551230889576</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>41.26298946135317</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>62.71451543789636</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>128.8537753079323</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>174.5728047847957</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>180.2069778018777</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.0267794410704</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>167.573545479347</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>160.9566639482323</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>171.6774345756011</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4604679489429</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I43" t="n">
-        <v>87.62897272389382</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.5652879271376</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T43" t="n">
-        <v>243.400138899798</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6484088706061</v>
+        <v>6.359916946502551</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -25867,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25876,10 +25876,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>238.4841664985293</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>163.3500438960077</v>
       </c>
       <c r="H44" t="n">
         <v>272.6207125031721</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>240.8720855447433</v>
       </c>
       <c r="U46" t="n">
-        <v>187.0750049854988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>211.0401621570023</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2723.937712648962</v>
+        <v>343655.764888694</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2723.937712648977</v>
+        <v>343655.7648886942</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2723.937712648977</v>
+        <v>343655.7648886942</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2723.937712648976</v>
+        <v>343655.7648886943</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2723.937712648978</v>
+        <v>343655.7648886942</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2723.937712648977</v>
+        <v>343655.7648886942</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2723.937712648978</v>
+        <v>343655.7648886942</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>343655.7648886943</v>
+        <v>343655.7648886942</v>
       </c>
     </row>
   </sheetData>
@@ -26334,25 +26334,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>773.8268907947322</v>
+        <v>97378.78047220707</v>
       </c>
       <c r="J2" t="n">
-        <v>773.8268907947324</v>
+        <v>97378.78047220715</v>
       </c>
       <c r="K2" t="n">
-        <v>773.8268907947324</v>
+        <v>97378.7804722071</v>
       </c>
       <c r="L2" t="n">
-        <v>773.8268907947324</v>
+        <v>97378.78047220712</v>
       </c>
       <c r="M2" t="n">
-        <v>773.8268907947327</v>
+        <v>97378.7804722071</v>
       </c>
       <c r="N2" t="n">
-        <v>773.8268907947328</v>
+        <v>97378.78047220712</v>
       </c>
       <c r="O2" t="n">
-        <v>773.826890794733</v>
+        <v>97378.78047220712</v>
       </c>
       <c r="P2" t="n">
         <v>97378.78047220713</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2871.648774425131</v>
+        <v>360192.1710449696</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>316458.5395085998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26438,25 +26438,25 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1010804579415</v>
+        <v>15365.01109927396</v>
       </c>
       <c r="J4" t="n">
-        <v>115.1010804579415</v>
+        <v>15365.01109927397</v>
       </c>
       <c r="K4" t="n">
-        <v>115.1010804579415</v>
+        <v>15365.01109927397</v>
       </c>
       <c r="L4" t="n">
-        <v>115.1010804579414</v>
+        <v>15365.01109927398</v>
       </c>
       <c r="M4" t="n">
-        <v>115.1010804579415</v>
+        <v>15365.01109927397</v>
       </c>
       <c r="N4" t="n">
-        <v>115.1010804579415</v>
+        <v>15365.01109927396</v>
       </c>
       <c r="O4" t="n">
-        <v>115.1010804579415</v>
+        <v>15365.01109927397</v>
       </c>
       <c r="P4" t="n">
         <v>15365.01109927397</v>
@@ -26490,28 +26490,28 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>256.4018338459632</v>
+        <v>32636.50261996419</v>
       </c>
       <c r="J5" t="n">
-        <v>256.4018338459632</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="K5" t="n">
-        <v>256.4018338459632</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4018338459632</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="M5" t="n">
-        <v>256.4018338459633</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="N5" t="n">
-        <v>256.4018338459633</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="O5" t="n">
-        <v>256.4018338459633</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="P5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="I6" t="n">
-        <v>-2469.324797934303</v>
+        <v>-311546.6552137754</v>
       </c>
       <c r="J6" t="n">
-        <v>402.3239764908279</v>
+        <v>48645.51583119425</v>
       </c>
       <c r="K6" t="n">
-        <v>402.3239764908278</v>
+        <v>48645.51583119421</v>
       </c>
       <c r="L6" t="n">
-        <v>402.3239764908278</v>
+        <v>48645.5158311942</v>
       </c>
       <c r="M6" t="n">
-        <v>402.3239764908279</v>
+        <v>48645.51583119421</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3239764908279</v>
+        <v>48645.51583119422</v>
       </c>
       <c r="O6" t="n">
-        <v>402.3239764908282</v>
+        <v>48645.51583119422</v>
       </c>
       <c r="P6" t="n">
-        <v>-267081.2727556308</v>
+        <v>48645.51583119424</v>
       </c>
     </row>
   </sheetData>
@@ -26758,25 +26758,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.662332998740292</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="J3" t="n">
-        <v>2.662332998740292</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="K3" t="n">
-        <v>2.662332998740292</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="L3" t="n">
-        <v>2.662332998740293</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="M3" t="n">
-        <v>2.662332998740293</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="N3" t="n">
-        <v>2.662332998740294</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="O3" t="n">
-        <v>2.662332998740294</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="P3" t="n">
         <v>330.7713854632871</v>
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563246</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="K4" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="L4" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M4" t="n">
-        <v>3.262548922260278</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="N4" t="n">
-        <v>3.262548922260278</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="O4" t="n">
-        <v>3.262548922260278</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="P4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.662332998740292</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>328.1090524645468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563246</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>414.9230829340646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01070284622609162</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1096105239129608</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313975</v>
+        <v>51.26457824351106</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9083906948817443</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K23" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M23" t="n">
-        <v>1.879326147397211</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N23" t="n">
-        <v>1.909735609237094</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O23" t="n">
-        <v>1.803309182076396</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P23" t="n">
-        <v>1.539082665869759</v>
+        <v>191.2174419853367</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.155786985397852</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6723126642497281</v>
+        <v>83.52891675219381</v>
       </c>
       <c r="S23" t="n">
-        <v>0.243891108377063</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T23" t="n">
-        <v>0.04685170935471608</v>
+        <v>5.820911517047392</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0008562276980873292</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0057265275821961</v>
+        <v>0.7114705272229194</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05530620059647287</v>
+        <v>6.871307460284512</v>
       </c>
       <c r="I24" t="n">
-        <v>0.19716334000105</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5410312747723079</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9247086227794465</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L24" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M24" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N24" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>1.362486586628912</v>
+        <v>169.2769372379899</v>
       </c>
       <c r="P24" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7309862225975232</v>
+        <v>90.81858870305196</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3555470370770527</v>
+        <v>44.17358238319145</v>
       </c>
       <c r="S24" t="n">
-        <v>0.106367738204388</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T24" t="n">
-        <v>0.02308192477209743</v>
+        <v>2.867725502271327</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.04680727152782366</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.5964729901796979</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04268461758636077</v>
+        <v>5.303187130870409</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1443770091775883</v>
+        <v>17.93756955922219</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3394256349377581</v>
+        <v>42.17064040570464</v>
       </c>
       <c r="K25" t="n">
-        <v>0.55778058563772</v>
+        <v>69.29931649542307</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7137671124819465</v>
+        <v>88.67926619453438</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7525673425783417</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7346729732425469</v>
+        <v>91.27663494268056</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6785894010559683</v>
+        <v>84.30874592103588</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5806504625449316</v>
+        <v>72.14069692136998</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4020122828097841</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2158671969142538</v>
+        <v>26.81959463117077</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08366708784565799</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02051305753127765</v>
+        <v>2.548566412585981</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0325348903734381</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01070284622609162</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1096105239129608</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>51.26457824351106</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9083906948817444</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K26" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M26" t="n">
-        <v>1.879326147397211</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N26" t="n">
-        <v>1.909735609237095</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O26" t="n">
-        <v>1.803309182076396</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P26" t="n">
-        <v>1.539082665869759</v>
+        <v>191.2174419853367</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.155786985397852</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6723126642497282</v>
+        <v>83.52891675219381</v>
       </c>
       <c r="S26" t="n">
-        <v>0.243891108377063</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04685170935471609</v>
+        <v>5.820911517047392</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.7114705272229194</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05530620059647288</v>
+        <v>6.871307460284512</v>
       </c>
       <c r="I27" t="n">
-        <v>0.19716334000105</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5410312747723081</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9247086227794468</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L27" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M27" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N27" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
-        <v>1.362486586628912</v>
+        <v>169.2769372379899</v>
       </c>
       <c r="P27" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7309862225975234</v>
+        <v>90.81858870305196</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3555470370770528</v>
+        <v>44.17358238319145</v>
       </c>
       <c r="S27" t="n">
-        <v>0.106367738204388</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02308192477209743</v>
+        <v>2.867725502271327</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.04680727152782366</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.5964729901796979</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04268461758636078</v>
+        <v>5.303187130870409</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1443770091775883</v>
+        <v>17.93756955922219</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3394256349377582</v>
+        <v>42.17064040570464</v>
       </c>
       <c r="K28" t="n">
-        <v>0.55778058563772</v>
+        <v>69.29931649542307</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7137671124819467</v>
+        <v>88.67926619453438</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7525673425783418</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N28" t="n">
-        <v>0.734672973242547</v>
+        <v>91.27663494268056</v>
       </c>
       <c r="O28" t="n">
-        <v>0.6785894010559684</v>
+        <v>84.30874592103588</v>
       </c>
       <c r="P28" t="n">
-        <v>0.5806504625449317</v>
+        <v>72.14069692136998</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4020122828097841</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2158671969142538</v>
+        <v>26.81959463117077</v>
       </c>
       <c r="S28" t="n">
-        <v>0.083667087845658</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T28" t="n">
-        <v>0.02051305753127766</v>
+        <v>2.548566412585981</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0325348903734381</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01070284622609162</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1096105239129608</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9083906948817444</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K29" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M29" t="n">
-        <v>1.879326147397211</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N29" t="n">
-        <v>1.909735609237095</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O29" t="n">
-        <v>1.803309182076396</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P29" t="n">
-        <v>1.539082665869759</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.155786985397852</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R29" t="n">
-        <v>0.6723126642497282</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S29" t="n">
-        <v>0.243891108377063</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T29" t="n">
-        <v>0.04685170935471609</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05530620059647288</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I30" t="n">
-        <v>0.19716334000105</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5410312747723081</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9247086227794468</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L30" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M30" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N30" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>1.362486586628912</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P30" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7309862225975234</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3555470370770528</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S30" t="n">
-        <v>0.106367738204388</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02308192477209743</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04268461758636078</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1443770091775883</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3394256349377582</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K31" t="n">
-        <v>0.55778058563772</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7137671124819467</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7525673425783418</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N31" t="n">
-        <v>0.734672973242547</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6785894010559684</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5806504625449317</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4020122828097841</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2158671969142538</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S31" t="n">
-        <v>0.083667087845658</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02051305753127766</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01070284622609162</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1096105239129609</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313977</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9083906948817447</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K32" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M32" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N32" t="n">
-        <v>1.909735609237095</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O32" t="n">
-        <v>1.803309182076396</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P32" t="n">
-        <v>1.539082665869759</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6723126642497285</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2438911083770631</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0468517093547161</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0008562276980873297</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05530620059647289</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I33" t="n">
-        <v>0.19716334000105</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5410312747723082</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K33" t="n">
-        <v>0.924708622779447</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L33" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M33" t="n">
-        <v>1.45097148431346</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N33" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>1.362486586628912</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P33" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7309862225975237</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3555470370770529</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1063677382043881</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T33" t="n">
-        <v>0.02308192477209744</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0003767452356707964</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.004800928358384135</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04268461758636079</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1443770091775884</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3394256349377583</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5577805856377203</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7137671124819469</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M34" t="n">
-        <v>0.752567342578342</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7346729732425472</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6785894010559687</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P34" t="n">
-        <v>0.5806504625449319</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4020122828097843</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2158671969142539</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S34" t="n">
-        <v>0.08366708784565803</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T34" t="n">
-        <v>0.02051305753127766</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01070284622609162</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1096105239129609</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313977</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9083906948817447</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K35" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M35" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N35" t="n">
-        <v>1.909735609237095</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O35" t="n">
-        <v>1.803309182076396</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P35" t="n">
-        <v>1.539082665869759</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6723126642497285</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S35" t="n">
-        <v>0.2438911083770631</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0468517093547161</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0008562276980873297</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05530620059647289</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I36" t="n">
-        <v>0.19716334000105</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5410312747723082</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K36" t="n">
-        <v>0.924708622779447</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L36" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M36" t="n">
-        <v>1.45097148431346</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N36" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O36" t="n">
-        <v>1.362486586628912</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P36" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7309862225975237</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3555470370770529</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1063677382043881</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T36" t="n">
-        <v>0.02308192477209744</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0003767452356707964</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004800928358384135</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04268461758636079</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1443770091775884</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3394256349377583</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5577805856377203</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L37" t="n">
-        <v>0.7137671124819469</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M37" t="n">
-        <v>0.752567342578342</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7346729732425472</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O37" t="n">
-        <v>0.6785894010559687</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P37" t="n">
-        <v>0.5806504625449319</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4020122828097843</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2158671969142539</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S37" t="n">
-        <v>0.08366708784565803</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02051305753127766</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01070284622609162</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1096105239129609</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313978</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9083906948817448</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K38" t="n">
-        <v>1.361442175632204</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>1.688989405823956</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M38" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N38" t="n">
-        <v>1.909735609237095</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O38" t="n">
-        <v>1.803309182076397</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P38" t="n">
-        <v>1.539082665869759</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6723126642497286</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2438911083770632</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T38" t="n">
-        <v>0.04685170935471611</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0008562276980873298</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.005726527582196103</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05530620059647291</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1971633400010501</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5410312747723083</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9247086227794472</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L39" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M39" t="n">
-        <v>1.45097148431346</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N39" t="n">
-        <v>1.489374382002837</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O39" t="n">
-        <v>1.362486586628912</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P39" t="n">
-        <v>1.093515604709009</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7309862225975238</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3555470370770529</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1063677382043881</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T39" t="n">
-        <v>0.02308192477209745</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0003767452356707965</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004800928358384136</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0426846175863608</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1443770091775884</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3394256349377583</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5577805856377204</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L40" t="n">
-        <v>0.713767112481947</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7525673425783422</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7346729732425474</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O40" t="n">
-        <v>0.6785894010559688</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P40" t="n">
-        <v>0.5806504625449319</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4020122828097843</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2158671969142539</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S40" t="n">
-        <v>0.08366708784565804</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T40" t="n">
-        <v>0.02051305753127767</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0002618688195482259</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01070284622609162</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1096105239129609</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313978</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9083906948817448</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K41" t="n">
-        <v>1.361442175632204</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>1.688989405823956</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M41" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N41" t="n">
-        <v>1.909735609237095</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O41" t="n">
-        <v>1.803309182076397</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P41" t="n">
-        <v>1.539082665869759</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R41" t="n">
-        <v>0.6723126642497286</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S41" t="n">
-        <v>0.2438911083770632</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T41" t="n">
-        <v>0.04685170935471611</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0008562276980873298</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005726527582196103</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05530620059647291</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1971633400010501</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5410312747723083</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9247086227794472</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L42" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M42" t="n">
-        <v>1.45097148431346</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N42" t="n">
-        <v>1.489374382002837</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O42" t="n">
-        <v>1.362486586628912</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P42" t="n">
-        <v>1.093515604709009</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7309862225975238</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3555470370770529</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1063677382043881</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02308192477209745</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0003767452356707965</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.004800928358384136</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0426846175863608</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1443770091775884</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3394256349377583</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5577805856377204</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L43" t="n">
-        <v>0.713767112481947</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7525673425783422</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7346729732425474</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O43" t="n">
-        <v>0.6785894010559688</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5806504625449319</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4020122828097843</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2158671969142539</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S43" t="n">
-        <v>0.08366708784565804</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T43" t="n">
-        <v>0.02051305753127767</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0002618688195482259</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>50.85195676437966</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9083906948817446</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K23" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>1.688989405823954</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M23" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N23" t="n">
-        <v>1.909735609237094</v>
+        <v>237.267799946444</v>
       </c>
       <c r="O23" t="n">
-        <v>1.803309182076395</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P23" t="n">
-        <v>1.539082665869758</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6723126642497288</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.19716334000105</v>
+        <v>24.49580543289437</v>
       </c>
       <c r="J24" t="n">
-        <v>3.262548922260276</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9247086227794461</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L24" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M24" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N24" t="n">
-        <v>1.489374382002836</v>
+        <v>185.0416262885609</v>
       </c>
       <c r="O24" t="n">
-        <v>1.362486586628911</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P24" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7309862225975223</v>
+        <v>133.9502340058261</v>
       </c>
       <c r="R24" t="n">
-        <v>1.163235505814583</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3394256349377581</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K25" t="n">
-        <v>0.55778058563772</v>
+        <v>346.8331089915196</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7462822273887484</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7525673425783417</v>
+        <v>418.1856318563246</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7346729732425468</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O25" t="n">
-        <v>3.262548922260276</v>
+        <v>84.30874592103578</v>
       </c>
       <c r="P25" t="n">
-        <v>3.262548922260276</v>
+        <v>271.4837599719071</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.262548922260276</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.615951549488937</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>50.85195676437966</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9083906948817444</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K26" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>1.688989405823954</v>
+        <v>209.8420318050157</v>
       </c>
       <c r="M26" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>1.909735609237096</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O26" t="n">
-        <v>1.803309182076395</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P26" t="n">
-        <v>1.539082665869758</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R26" t="n">
-        <v>0.672312664249727</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.19716334000105</v>
+        <v>24.49580543289437</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5410312747723081</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9247086227794468</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L27" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M27" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N27" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
-        <v>1.984690817671185</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P27" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7309862225975241</v>
+        <v>133.9502340058266</v>
       </c>
       <c r="R27" t="n">
-        <v>3.262548922260276</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.262548922260276</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K28" t="n">
-        <v>3.262548922260276</v>
+        <v>346.8331089915196</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7137671124819462</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7525673425783417</v>
+        <v>288.022329245072</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7346729732425477</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O28" t="n">
-        <v>0.6785894010559677</v>
+        <v>84.30874592103578</v>
       </c>
       <c r="P28" t="n">
-        <v>0.5806504625449325</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.933030394141655</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.615951549488937</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9083906948817446</v>
+        <v>112.859529153627</v>
       </c>
       <c r="K29" t="n">
-        <v>1.361442175632202</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L29" t="n">
-        <v>1.688989405823956</v>
+        <v>209.8420318050157</v>
       </c>
       <c r="M29" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N29" t="n">
-        <v>1.909735609237095</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O29" t="n">
-        <v>1.803309182076395</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P29" t="n">
-        <v>1.539082665869758</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.155786985397851</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R29" t="n">
-        <v>0.6723126642497288</v>
+        <v>83.52891675219348</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.262548922260276</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
-        <v>1.004851808738578</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9247086227794465</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L30" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M30" t="n">
-        <v>1.45097148431346</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N30" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>1.362486586628911</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P30" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7309862225975241</v>
+        <v>252.3065755152606</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3555470370770522</v>
+        <v>44.17358238319139</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.262548922260276</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K31" t="n">
-        <v>3.262548922260276</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L31" t="n">
-        <v>3.244785223813818</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7525673425783417</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N31" t="n">
-        <v>0.7346729732425477</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6785894010559677</v>
+        <v>262.2926534414112</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5806504625449325</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4020122828097836</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9083906948817448</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K32" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M32" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N32" t="n">
-        <v>1.909735609237095</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O32" t="n">
-        <v>1.803309182076397</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P32" t="n">
-        <v>1.53908266586976</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6723126642497252</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8193675710433201</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5410312747723083</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K33" t="n">
-        <v>0.924708622779447</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L33" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M33" t="n">
-        <v>1.45097148431346</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N33" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>1.362486586628912</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P33" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7309862225975241</v>
+        <v>107.6232914195061</v>
       </c>
       <c r="R33" t="n">
-        <v>3.262548922260276</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.262548922260276</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5577805856377203</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7137671124819471</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M34" t="n">
-        <v>3.127817151082272</v>
+        <v>302.5948939717961</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7346729732425477</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6785894010559712</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P34" t="n">
-        <v>0.5806504625449325</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.262548922260276</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9083906948817447</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K35" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>1.688989405823956</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M35" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N35" t="n">
-        <v>1.909735609237096</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O35" t="n">
-        <v>1.803309182076395</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P35" t="n">
-        <v>1.53908266586976</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6723126642497288</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.19716334000105</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J36" t="n">
-        <v>1.163235505814582</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K36" t="n">
-        <v>0.924708622779447</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L36" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M36" t="n">
-        <v>1.45097148431346</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N36" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O36" t="n">
-        <v>1.362486586628912</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P36" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7309862225975241</v>
+        <v>107.6232914195057</v>
       </c>
       <c r="R36" t="n">
-        <v>3.262548922260278</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.262548922260278</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K37" t="n">
-        <v>3.262548922260278</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L37" t="n">
-        <v>0.7137671124819471</v>
+        <v>266.6631737149097</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7525673425783426</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7346729732425477</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O37" t="n">
-        <v>0.6785894010559694</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P37" t="n">
-        <v>0.5806504625449325</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.933030394141653</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9083906948817448</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K38" t="n">
-        <v>1.361442175632204</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M38" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N38" t="n">
-        <v>1.909735609237097</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O38" t="n">
-        <v>1.803309182076397</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P38" t="n">
-        <v>1.53908266586976</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R38" t="n">
-        <v>0.672312664249727</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.262548922260278</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5410312747723083</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9247086227794474</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L39" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M39" t="n">
-        <v>1.45097148431346</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N39" t="n">
-        <v>1.489374382002837</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O39" t="n">
-        <v>1.362486586628913</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P39" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7309862225975241</v>
+        <v>107.6232914195057</v>
       </c>
       <c r="R39" t="n">
-        <v>0.8193675710433226</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3394256349377583</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5577805856377203</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L40" t="n">
-        <v>3.262548922260278</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7525673425783426</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7346729732425477</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O40" t="n">
-        <v>0.7462822273887477</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P40" t="n">
-        <v>3.262548922260278</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.262548922260278</v>
+        <v>99.42684684558344</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9083906948817448</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K41" t="n">
-        <v>1.361442175632204</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>1.688989405823956</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M41" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>1.909735609237095</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O41" t="n">
-        <v>1.803309182076397</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P41" t="n">
-        <v>1.53908266586976</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R41" t="n">
-        <v>0.6723126642497288</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.262548922260278</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5410312747723083</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9247086227794474</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L42" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M42" t="n">
-        <v>1.45097148431346</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N42" t="n">
-        <v>1.489374382002837</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O42" t="n">
-        <v>1.362486586628913</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P42" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.194806756563795</v>
+        <v>107.6232914195057</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3555470370770522</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3394256349377583</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5577805856377203</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L43" t="n">
-        <v>1.078942917821512</v>
+        <v>266.6631737149097</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7525673425783421</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N43" t="n">
-        <v>3.262548922260278</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O43" t="n">
-        <v>3.262548922260278</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P43" t="n">
-        <v>3.262548922260278</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4020122828097836</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38022,10 +38022,10 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N44" t="n">
         <v>237.2677999464443</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J45" t="n">
         <v>395.0550542837863</v>
@@ -38116,10 +38116,10 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>107.6232914195061</v>
+        <v>225.9796329289397</v>
       </c>
       <c r="R45" t="n">
-        <v>162.5299238926254</v>
+        <v>44.17358238319139</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,10 +38180,10 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L46" t="n">
-        <v>88.67926619453442</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M46" t="n">
-        <v>418.1856318563248</v>
+        <v>288.0223292450717</v>
       </c>
       <c r="N46" t="n">
         <v>91.27663494268063</v>
@@ -38192,10 +38192,10 @@
         <v>84.30874592103601</v>
       </c>
       <c r="P46" t="n">
-        <v>271.4837599719074</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q46" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R46" t="n">
         <v>5.615951549488944</v>
